--- a/Arquivos_Exercicios_Python_Excel/02_05_Notas.xlsx
+++ b/Arquivos_Exercicios_Python_Excel/02_05_Notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85189741\Documents\GitHub\pythonPandasLinkedin\Arquivos_Exercicios_Python_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46969F8-EFD2-43AF-8FE2-0BC1534C9E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C59B0D3-BA3F-4B49-B646-BDFFE11EF169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{DDDCD489-314C-48CF-9D4E-0BE9B7A860A4}"/>
+    <workbookView xWindow="15480" yWindow="15" windowWidth="13425" windowHeight="15570" xr2:uid="{DDDCD489-314C-48CF-9D4E-0BE9B7A860A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
